--- a/Assets/Document/Excel/Player.xlsx
+++ b/Assets/Document/Excel/Player.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +77,10 @@
   </si>
   <si>
     <t>growthRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxStamina</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -436,11 +438,12 @@
     <col min="2" max="3" width="13.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,19 +457,22 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -480,19 +486,22 @@
         <v>5</v>
       </c>
       <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1001</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -506,15 +515,18 @@
         <v>6</v>
       </c>
       <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>7</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1002</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -523,30 +535,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>